--- a/错题记录.xlsx
+++ b/错题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\my_cans\Algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\my_cans\Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ABB296-7B53-47D2-85D2-8224D803E3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE1F8A-D569-4C85-BD28-EA9EC6E27302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,19 +39,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复刷-1天</t>
+    <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复刷-3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复刷-7天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>知识点回顾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +66,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +89,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,16 +109,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,43 +416,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
